--- a/2025/10/2025-10-23/23_combined_confidence.xlsx
+++ b/2025/10/2025-10-23/23_combined_confidence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,125 +473,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk  - Legia Warszawa: 17:45</t>
+          <t>Maccabi Tel Aviv - FC Midtjylland ✓: 0:3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>FC Midtjylland</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>62</v>
-      </c>
-      <c r="D2" t="n">
-        <v>90</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>2.3</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv - FC Midtjylland : 20:00</t>
+          <t>Feyenoord Rotterdam ✓ - Panathinaikos FC: 3:1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FC Midtjylland</t>
+          <t>Feyenoord Rotterdam</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>63</v>
+      </c>
+      <c r="D3" t="n">
+        <v>68</v>
+      </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>1.53</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AS Roma  - FC Viktoria Plzen: 20:00</t>
+          <t>AEK Athens ✓ - Aberdeen FC: 6:0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AS Roma</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E4" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Feyenoord Rotterdam  - Panathinaikos FC: 20:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Feyenoord Rotterdam</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>54</v>
-      </c>
-      <c r="D5" t="n">
-        <v>68</v>
-      </c>
-      <c r="E5" t="n">
-        <v>81</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AEK Athens  - Aberdeen FC: 17:45</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>AEK Athens</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>52</v>
-      </c>
-      <c r="D6" t="n">
-        <v>81</v>
-      </c>
-      <c r="E6" t="n">
-        <v>93</v>
-      </c>
-      <c r="F6" t="n">
         <v>1.3</v>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
